--- a/B0006/models/lstm/test_results_B0006.xlsx
+++ b/B0006/models/lstm/test_results_B0006.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardodalronco/Documents/Università degli studi Guglielmo Marconi/Laurea/Progetto/Progetti/battery_LSTM_explainability/B0006/models/lstm/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AE6BAC-2472-B241-932F-05BC7CD76468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,17 +34,17 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>MAPE (%)</t>
+    <t>MAE</t>
   </si>
   <si>
-    <t>MAE</t>
+    <t>MAPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,17 +77,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -119,7 +133,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -153,6 +167,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -187,9 +202,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -362,14 +378,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,65 +401,65 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.025140246031412</v>
+        <v>2.0251402460314121</v>
       </c>
       <c r="B2">
         <v>2.013546466827393</v>
       </c>
       <c r="D2">
-        <v>0.0004171598718733281</v>
+        <v>4.171598718733281E-4</v>
       </c>
       <c r="E2">
-        <v>0.02042449196120501</v>
+        <v>2.0424491961205011E-2</v>
       </c>
       <c r="F2">
-        <v>0.02042449196120501</v>
+        <v>6.9704833123545498E-3</v>
       </c>
       <c r="G2">
-        <v>0.01102700871356042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1.102700871356042E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2.013326371345464</v>
+        <v>2.0133263713454639</v>
       </c>
       <c r="B3">
-        <v>2.011709928512573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2.0117099285125728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2.013284665540741</v>
+        <v>2.0132846655407408</v>
       </c>
       <c r="B4">
-        <v>2.000716209411621</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>2.0007162094116211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2.000528337624771</v>
+        <v>2.0005283376247709</v>
       </c>
       <c r="B5">
-        <v>2.001120090484619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>2.0011200904846191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.013899075993165</v>
       </c>
       <c r="B6">
-        <v>1.989495038986206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1.9894950389862061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.013101105626967</v>
       </c>
@@ -449,95 +467,95 @@
         <v>2.00148606300354</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.96878982627284</v>
       </c>
       <c r="B8">
-        <v>2.000338315963745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>2.0003383159637451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.968166176433424</v>
       </c>
       <c r="B9">
-        <v>1.959768056869507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1.9597680568695071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1.957230791756054</v>
+        <v>1.9572307917560541</v>
       </c>
       <c r="B10">
         <v>1.959297657012939</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1.945599151412935</v>
+        <v>1.9455991514129349</v>
       </c>
       <c r="B11">
-        <v>1.9493088722229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1.9493088722228999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1.934750504484113</v>
+        <v>1.9347505044841129</v>
       </c>
       <c r="B12">
         <v>1.939302921295166</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1.923279953936803</v>
+        <v>1.9232799539368031</v>
       </c>
       <c r="B13">
-        <v>1.926279067993164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1.9262790679931641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1.911889930948487</v>
+        <v>1.9118899309484869</v>
       </c>
       <c r="B14">
-        <v>1.916752338409424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1.9167523384094241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1.90106671419793</v>
+        <v>1.9010667141979301</v>
       </c>
       <c r="B15">
-        <v>1.905640363693237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>1.9056403636932371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1.889198994806146</v>
+        <v>1.8891989948061461</v>
       </c>
       <c r="B16">
-        <v>1.897236347198486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>1.8972363471984861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.878278372248849</v>
       </c>
       <c r="B17">
-        <v>1.886749982833862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>1.8867499828338621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1.867569716152021</v>
+        <v>1.8675697161520211</v>
       </c>
       <c r="B18">
-        <v>1.876322507858276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>1.8763225078582759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.867589257445377</v>
       </c>
@@ -545,15 +563,15 @@
         <v>1.865678548812866</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.979626548250818</v>
       </c>
       <c r="B20">
-        <v>1.86530876159668</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>1.8653087615966799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.957549908088402</v>
       </c>
@@ -561,15 +579,15 @@
         <v>1.967023372650146</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1.945815017078755</v>
+        <v>1.9458150170787549</v>
       </c>
       <c r="B22">
         <v>1.945299625396729</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.924246112168009</v>
       </c>
@@ -577,55 +595,55 @@
         <v>1.935615062713623</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1.945981133142164</v>
+        <v>1.9459811331421639</v>
       </c>
       <c r="B24">
         <v>1.917782306671143</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1.901407930553079</v>
+        <v>1.9014079305530791</v>
       </c>
       <c r="B25">
         <v>1.937837600708008</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1.878674213680085</v>
+        <v>1.8786742136800849</v>
       </c>
       <c r="B26">
         <v>1.897140264511108</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1.868306132826422</v>
+        <v>1.8683061328264221</v>
       </c>
       <c r="B27">
         <v>1.875921964645386</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1.8560244070083</v>
+        <v>1.8560244070083001</v>
       </c>
       <c r="B28">
         <v>1.865659713745117</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1.845199796185578</v>
+        <v>1.8451997961855779</v>
       </c>
       <c r="B29">
-        <v>1.854863882064819</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>1.8548638820648189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.857228890885317</v>
       </c>
@@ -633,7 +651,7 @@
         <v>1.844687223434448</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.924776088909063</v>
       </c>
@@ -641,23 +659,23 @@
         <v>1.854912996292114</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1.882231752609255</v>
+        <v>1.8822317526092549</v>
       </c>
       <c r="B32">
-        <v>1.900469779968262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>1.9004697799682619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1.855276687885587</v>
+        <v>1.8552766878855871</v>
       </c>
       <c r="B33">
         <v>1.871483325958252</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.839250891718188</v>
       </c>
@@ -665,15 +683,15 @@
         <v>1.846407413482666</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1.818539607399443</v>
+        <v>1.8185396073994431</v>
       </c>
       <c r="B35">
         <v>1.831624507904053</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1.813477005956706</v>
       </c>
@@ -681,7 +699,7 @@
         <v>1.81290602684021</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1.797101845030544</v>
       </c>
@@ -689,23 +707,23 @@
         <v>1.805404424667358</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1.781004629412048</v>
+        <v>1.7810046294120481</v>
       </c>
       <c r="B38">
         <v>1.790558815002441</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1.771013042268233</v>
+        <v>1.7710130422682331</v>
       </c>
       <c r="B39">
-        <v>1.776709079742432</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>1.7767090797424321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.760471244817094</v>
       </c>
@@ -713,15 +731,15 @@
         <v>1.766708135604858</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1.750291378800659</v>
+        <v>1.7502913788006591</v>
       </c>
       <c r="B41">
-        <v>1.755509853363037</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>1.7555098533630371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.739492503773258</v>
       </c>
@@ -729,15 +747,15 @@
         <v>1.744036912918091</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1.75467665536372</v>
+        <v>1.7546766553637201</v>
       </c>
       <c r="B43">
-        <v>1.733067750930786</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>1.7330677509307859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.765939094184217</v>
       </c>
@@ -745,31 +763,31 @@
         <v>1.74901270866394</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.733788741962484</v>
       </c>
       <c r="B45">
-        <v>1.759273290634155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>1.7592732906341551</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1.713325912040734</v>
       </c>
       <c r="B46">
-        <v>1.730032920837402</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>1.7300329208374019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1.702407781367347</v>
+        <v>1.7024077813673471</v>
       </c>
       <c r="B47">
-        <v>1.711249351501465</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>1.7112493515014651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.82371946178183</v>
       </c>
@@ -777,39 +795,39 @@
         <v>1.699471712112427</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1.808128405031471</v>
       </c>
       <c r="B49">
-        <v>1.815246343612671</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>1.8152463436126709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1.775761094503428</v>
+        <v>1.7757610945034279</v>
       </c>
       <c r="B50">
         <v>1.792741537094116</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1.74474098418368</v>
+        <v>1.7447409841836801</v>
       </c>
       <c r="B51">
         <v>1.765775680541992</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1.729207034132373</v>
+        <v>1.7292070341323731</v>
       </c>
       <c r="B52">
-        <v>1.738385438919067</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>1.7383854389190669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1.708108655255324</v>
       </c>
@@ -817,23 +835,23 @@
         <v>1.723229646682739</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1.697595423746177</v>
       </c>
       <c r="B54">
-        <v>1.703816652297974</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>1.7038166522979741</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1.682063452402946</v>
+        <v>1.6820634524029461</v>
       </c>
       <c r="B55">
         <v>1.691727876663208</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1.671476832229509</v>
       </c>
@@ -841,39 +859,39 @@
         <v>1.676804780960083</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1.660759138704766</v>
       </c>
       <c r="B57">
-        <v>1.666140794754028</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>1.6661407947540281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1.651121015038069</v>
+        <v>1.6511210150380691</v>
       </c>
       <c r="B58">
         <v>1.656242370605469</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1.640134925619093</v>
+        <v>1.6401349256190929</v>
       </c>
       <c r="B59">
-        <v>1.646539211273193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>1.6465392112731929</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1.629199941616544</v>
+        <v>1.6291999416165439</v>
       </c>
       <c r="B60">
-        <v>1.633600473403931</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>1.6336004734039311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1.608849630296167</v>
       </c>
@@ -881,31 +899,31 @@
         <v>1.623421907424927</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1.603524489896925</v>
       </c>
       <c r="B62">
-        <v>1.605313062667847</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>1.6053130626678469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1.598971214402798</v>
+        <v>1.5989712144027981</v>
       </c>
       <c r="B63">
-        <v>1.600020408630371</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>1.6000204086303711</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1.58762731235756</v>
+        <v>1.5876273123575599</v>
       </c>
       <c r="B64">
-        <v>1.594340085983276</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>1.5943400859832759</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1.582971974468617</v>
       </c>
@@ -913,7 +931,7 @@
         <v>1.581016063690186</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1.567137636713563</v>
       </c>
@@ -921,7 +939,7 @@
         <v>1.5781090259552</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1.561344613971388</v>
       </c>
@@ -929,23 +947,23 @@
         <v>1.563576936721802</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1.551171189279042</v>
+        <v>1.5511711892790421</v>
       </c>
       <c r="B68">
-        <v>1.557390213012695</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>1.5573902130126951</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1.540674160629517</v>
+        <v>1.5406741606295169</v>
       </c>
       <c r="B69">
         <v>1.547726631164551</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1.525313874462443</v>
       </c>
@@ -953,31 +971,31 @@
         <v>1.536872863769531</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1.530157031806743</v>
       </c>
       <c r="B71">
-        <v>1.522566318511963</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>1.5225663185119629</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1.524656683447409</v>
+        <v>1.5246566834474089</v>
       </c>
       <c r="B72">
         <v>1.526264905929565</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1.514549298665543</v>
+        <v>1.5145492986655431</v>
       </c>
       <c r="B73">
-        <v>1.520738124847412</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>1.5207381248474121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1.509391504602082</v>
       </c>
@@ -985,39 +1003,39 @@
         <v>1.510956764221191</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1.503997433305071</v>
       </c>
       <c r="B75">
-        <v>1.505594968795776</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>1.5055949687957759</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1.493520191804019</v>
+        <v>1.4935201918040191</v>
       </c>
       <c r="B76">
-        <v>1.500781536102295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>1.5007815361022949</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1.487632302449742</v>
       </c>
       <c r="B77">
-        <v>1.490887880325317</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>1.4908878803253169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1.53028762144017</v>
+        <v>1.5302876214401699</v>
       </c>
       <c r="B78">
         <v>1.485739469528198</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1.504076008836011</v>
       </c>
@@ -1025,47 +1043,47 @@
         <v>1.523858308792114</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1.488759360873089</v>
+        <v>1.4887593608730889</v>
       </c>
       <c r="B80">
         <v>1.501194953918457</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1.478277928554664</v>
+        <v>1.4782779285546639</v>
       </c>
       <c r="B81">
         <v>1.487232446670532</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1.478459982215684</v>
+        <v>1.4784599822156841</v>
       </c>
       <c r="B82">
-        <v>1.477718114852905</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>1.4777181148529051</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1.473214844899973</v>
+        <v>1.4732148448999729</v>
       </c>
       <c r="B83">
-        <v>1.475078105926514</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>1.4750781059265139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1.46751649350679</v>
+        <v>1.4675164935067899</v>
       </c>
       <c r="B84">
         <v>1.468210697174072</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1.451629265752133</v>
       </c>
@@ -1073,87 +1091,87 @@
         <v>1.463363885879517</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1.451923772096718</v>
       </c>
       <c r="B86">
-        <v>1.449224948883057</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>1.4492249488830571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1.447148469477775</v>
       </c>
       <c r="B87">
-        <v>1.450111627578735</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>1.4501116275787349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1.446853810565988</v>
+        <v>1.4468538105659881</v>
       </c>
       <c r="B88">
         <v>1.444353580474854</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1.441674193028468</v>
       </c>
       <c r="B89">
-        <v>1.442535161972046</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>1.4425351619720459</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1.546390237691564</v>
+        <v>1.5463902376915639</v>
       </c>
       <c r="B90">
         <v>1.437052965164185</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1.51470559175661</v>
+        <v>1.5147055917566099</v>
       </c>
       <c r="B91">
         <v>1.538985013961792</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1.49897860833354</v>
+        <v>1.4989786083335399</v>
       </c>
       <c r="B92">
         <v>1.508048295974731</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1.483111074541049</v>
       </c>
       <c r="B93">
-        <v>1.493481636047363</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>1.4934816360473631</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1.472966482546828</v>
       </c>
       <c r="B94">
-        <v>1.478361368179321</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>1.4783613681793211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1.462760439609931</v>
       </c>
       <c r="B95">
-        <v>1.469048261642456</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>1.4690482616424561</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1.451836468106251</v>
       </c>
@@ -1161,7 +1179,7 @@
         <v>1.458540201187134</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1.446867064403039</v>
       </c>
@@ -1169,23 +1187,23 @@
         <v>1.447391033172607</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1.441380399427779</v>
       </c>
       <c r="B98">
-        <v>1.443014144897461</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>1.4430141448974609</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1.431210744960774</v>
+        <v>1.4312107449607741</v>
       </c>
       <c r="B99">
         <v>1.437003612518311</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1.426024717952572</v>
       </c>
@@ -1193,15 +1211,15 @@
         <v>1.426908016204834</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1.420487649966195</v>
+        <v>1.4204876499661949</v>
       </c>
       <c r="B101">
-        <v>1.42172384262085</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>1.4217238426208501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1.420700623035501</v>
       </c>
@@ -1209,15 +1227,15 @@
         <v>1.416646003723145</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1.452255804330839</v>
+        <v>1.4522558043308389</v>
       </c>
       <c r="B103">
         <v>1.416645288467407</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1.431557632772571</v>
       </c>
@@ -1225,7 +1243,7 @@
         <v>1.445404529571533</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1.415015751158943</v>
       </c>
@@ -1233,39 +1251,39 @@
         <v>1.424874067306519</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>1.409731150651745</v>
+        <v>1.4097311506517449</v>
       </c>
       <c r="B106">
-        <v>1.410038232803345</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>1.4100382328033449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1.404917318129309</v>
+        <v>1.4049173181293091</v>
       </c>
       <c r="B107">
-        <v>1.405027627944946</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>1.4050276279449461</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1.395164296571563</v>
+        <v>1.3951642965715629</v>
       </c>
       <c r="B108">
         <v>1.400309562683105</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>1.394534383261408</v>
+        <v>1.3945343832614081</v>
       </c>
       <c r="B109">
-        <v>1.390363693237305</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>1.3903636932373049</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1.389317117931264</v>
       </c>
@@ -1273,23 +1291,23 @@
         <v>1.387915372848511</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1.383837947232781</v>
+        <v>1.3838379472327811</v>
       </c>
       <c r="B111">
         <v>1.383781433105469</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1.373681423819512</v>
+        <v>1.3736814238195121</v>
       </c>
       <c r="B112">
-        <v>1.379382133483887</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>1.3793821334838869</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1.378605989186368</v>
       </c>
@@ -1297,23 +1315,23 @@
         <v>1.369359970092773</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1.373760029910857</v>
       </c>
       <c r="B114">
-        <v>1.371885538101196</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>1.3718855381011961</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1.368258058394271</v>
+        <v>1.3682580583942709</v>
       </c>
       <c r="B115">
-        <v>1.367469072341919</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>1.3674690723419189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1.36330240373175</v>
       </c>
@@ -1321,23 +1339,23 @@
         <v>1.363120317459106</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>1.35809661401726</v>
+        <v>1.3580966140172599</v>
       </c>
       <c r="B117">
-        <v>1.359309673309326</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>1.3593096733093259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>1.353269090999531</v>
+        <v>1.3532690909995311</v>
       </c>
       <c r="B118">
-        <v>1.353366851806641</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>1.3533668518066411</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1.384160573823749</v>
       </c>
@@ -1345,23 +1363,23 @@
         <v>1.34740161895752</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>1.405146779065147</v>
+        <v>1.4051467790651471</v>
       </c>
       <c r="B120">
         <v>1.377388715744019</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1.378719022627353</v>
+        <v>1.3787190226273529</v>
       </c>
       <c r="B121">
         <v>1.397582054138184</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1.368265778319907</v>
       </c>
@@ -1369,7 +1387,7 @@
         <v>1.372292757034302</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1.357315129661802</v>
       </c>
@@ -1377,23 +1395,23 @@
         <v>1.363844156265259</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1.35249346388016</v>
       </c>
       <c r="B124">
-        <v>1.353217363357544</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>1.3532173633575439</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>1.347409915166124</v>
+        <v>1.3474099151661241</v>
       </c>
       <c r="B125">
         <v>1.348696708679199</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1.337007513084232</v>
       </c>
@@ -1401,7 +1419,7 @@
         <v>1.343732357025146</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1.331235296671853</v>
       </c>
@@ -1409,15 +1427,15 @@
         <v>1.333490133285522</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1.325930378172764</v>
       </c>
       <c r="B128">
-        <v>1.328280210494995</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>1.3282802104949949</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1.321578743867529</v>
       </c>
@@ -1425,47 +1443,47 @@
         <v>1.323812007904053</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>1.321225074066109</v>
+        <v>1.3212250740661089</v>
       </c>
       <c r="B130">
-        <v>1.319401264190674</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>1.3194012641906741</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>1.315648530186268</v>
+        <v>1.3156485301862679</v>
       </c>
       <c r="B131">
         <v>1.318475484848022</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1.320902569750239</v>
       </c>
       <c r="B132">
-        <v>1.31332540512085</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>1.3133254051208501</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>1.347432876727391</v>
+        <v>1.3474328767273911</v>
       </c>
       <c r="B133">
         <v>1.319002628326416</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>1.326012807235362</v>
+        <v>1.3260128072353621</v>
       </c>
       <c r="B134">
         <v>1.341132640838623</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1.310118678483106</v>
       </c>
@@ -1473,7 +1491,7 @@
         <v>1.321665287017822</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1.30521620229393</v>
       </c>
@@ -1481,7 +1499,7 @@
         <v>1.306618213653564</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1.300406195135577</v>
       </c>
@@ -1489,31 +1507,31 @@
         <v>1.302914142608643</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>1.300235735841116</v>
+        <v>1.3002357358411161</v>
       </c>
       <c r="B138">
-        <v>1.297302007675171</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>1.2973020076751709</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1.289506672248075</v>
       </c>
       <c r="B139">
-        <v>1.295597553253174</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>1.2955975532531741</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>1.279253057384795</v>
+        <v>1.2792530573847949</v>
       </c>
       <c r="B140">
-        <v>1.286228179931641</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>1.2862281799316411</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1.279207817171462</v>
       </c>
@@ -1521,79 +1539,79 @@
         <v>1.277528047561646</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>1.274036760902923</v>
+        <v>1.2740367609029231</v>
       </c>
       <c r="B142">
-        <v>1.278060436248779</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>1.2780604362487791</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1.274127392300147</v>
       </c>
       <c r="B143">
-        <v>1.272228240966797</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>1.2722282409667971</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>1.263763942644078</v>
+        <v>1.2637639426440781</v>
       </c>
       <c r="B144">
         <v>1.271565437316895</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>1.258137368895523</v>
+        <v>1.2581373688955231</v>
       </c>
       <c r="B145">
-        <v>1.262966871261597</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>1.2629668712615969</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1.253259864055301</v>
       </c>
       <c r="B146">
-        <v>1.258040904998779</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>1.2580409049987791</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>1.253231331549343</v>
+        <v>1.2532313315493431</v>
       </c>
       <c r="B147">
-        <v>1.253705978393555</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>1.2537059783935549</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>1.248087496031358</v>
+        <v>1.2480874960313579</v>
       </c>
       <c r="B148">
-        <v>1.252251386642456</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>1.2522513866424561</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1.253435428494484</v>
       </c>
       <c r="B149">
-        <v>1.24799370765686</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>1.2479937076568599</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>1.28980487732669</v>
+        <v>1.2898048773266899</v>
       </c>
       <c r="B150">
-        <v>1.252394676208496</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>1.2523946762084961</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1.263540202175883</v>
       </c>
@@ -1601,39 +1619,39 @@
         <v>1.286786794662476</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>1.247976170684285</v>
+        <v>1.2479761706842849</v>
       </c>
       <c r="B152">
-        <v>1.261495351791382</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>1.2614953517913821</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>1.232120287794333</v>
+        <v>1.2321202877943329</v>
       </c>
       <c r="B153">
-        <v>1.247263193130493</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>1.2472631931304929</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1.227113766621353</v>
       </c>
       <c r="B154">
-        <v>1.232709884643555</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>1.2327098846435549</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>1.221739758137736</v>
+        <v>1.2217397581377361</v>
       </c>
       <c r="B155">
         <v>1.227791547775269</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1.211102678915174</v>
       </c>
@@ -1641,7 +1659,7 @@
         <v>1.222375631332397</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1.205615976513174</v>
       </c>
@@ -1649,23 +1667,23 @@
         <v>1.212244987487793</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>1.200893626271727</v>
+        <v>1.2008936262717269</v>
       </c>
       <c r="B158">
         <v>1.206742525100708</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1.190590398555833</v>
       </c>
       <c r="B159">
-        <v>1.20185661315918</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>1.2018566131591799</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1.185179251041941</v>
       </c>
@@ -1673,7 +1691,7 @@
         <v>1.19240403175354</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1.179670681814462</v>
       </c>
@@ -1681,15 +1699,15 @@
         <v>1.186720609664917</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1.174595283675391</v>
       </c>
       <c r="B162">
-        <v>1.181341648101807</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>1.1813416481018071</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1.15381833159625</v>
       </c>
@@ -1697,36 +1715,36 @@
         <v>1.176857709884644</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>1.164400955737226</v>
+        <v>1.1644009557372259</v>
       </c>
       <c r="B164">
         <v>1.155997753143311</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>1.158797494791607</v>
+        <v>1.1587974947916071</v>
       </c>
       <c r="B165">
-        <v>1.166775465011597</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>1.1667754650115969</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>1.174974883476917</v>
+        <v>1.1749748834769169</v>
       </c>
       <c r="B166">
         <v>1.160791873931885</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>1.185675232792936</v>
+        <v>1.1856752327929361</v>
       </c>
       <c r="B167">
-        <v>1.176718235015869</v>
+        <v>1.1767182350158689</v>
       </c>
     </row>
   </sheetData>
